--- a/DatosExperimento1/UPV/Exp1_Observadores_UPV.xlsx
+++ b/DatosExperimento1/UPV/Exp1_Observadores_UPV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\luismi\workspace\jupyter\TFM\DatosExperimento1\UPV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luismi\tfm-noise-detection\DatosExperimento1\UPV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB82AE8D-504C-400E-A46C-CE86E4CFFA5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273C0F79-A0D2-4561-A559-2B9636C99FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13425" yWindow="1455" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2160" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="171">
   <si>
     <t>Nombre</t>
   </si>
@@ -54,66 +54,30 @@
     <t>Fichero</t>
   </si>
   <si>
-    <t>khleef</t>
-  </si>
-  <si>
-    <t>almutairi</t>
-  </si>
-  <si>
     <t>Hombre</t>
   </si>
   <si>
     <t>ResultsJNDsNoiseFlatBG20211129T112353.mat</t>
   </si>
   <si>
-    <t>Khleef</t>
-  </si>
-  <si>
-    <t>Almutairi</t>
-  </si>
-  <si>
     <t>ResultsJNDsNoiseFlatBG20211129T120005.mat</t>
   </si>
   <si>
-    <t>Juan</t>
-  </si>
-  <si>
-    <t>Giner</t>
-  </si>
-  <si>
     <t>ResultsJNDsNoiseFlatBG20211129T133717.mat</t>
   </si>
   <si>
     <t>ResultsJNDsNoiseFlatBG20211129T140322.mat</t>
   </si>
   <si>
-    <t>Sergio</t>
-  </si>
-  <si>
-    <t>Camp</t>
-  </si>
-  <si>
     <t>ResultsJNDsNoiseFlatBG20211129T163621.mat</t>
   </si>
   <si>
     <t>ResultsJNDsNoiseFlatBG20211129T171934.mat</t>
   </si>
   <si>
-    <t>Antonio</t>
-  </si>
-  <si>
-    <t>Hervás Jorge</t>
-  </si>
-  <si>
     <t>ResultsJNDsNoiseFlatBG20211130T105700.mat</t>
   </si>
   <si>
-    <t xml:space="preserve">jessica </t>
-  </si>
-  <si>
-    <t>cordero ruiz</t>
-  </si>
-  <si>
     <t>Mujer</t>
   </si>
   <si>
@@ -123,12 +87,6 @@
     <t>ResultsJNDsNoiseFlatBG20211201T114113.mat</t>
   </si>
   <si>
-    <t>JOSE ALBERTO</t>
-  </si>
-  <si>
-    <t>CONEJERO</t>
-  </si>
-  <si>
     <t>02-Dec-2021 14:02:24</t>
   </si>
   <si>
@@ -141,117 +99,60 @@
     <t>ResultsJNDsNoiseFlatBG20211202T142641.mat</t>
   </si>
   <si>
-    <t>Maria Jose</t>
-  </si>
-  <si>
-    <t>Rodriguez Alvarez</t>
-  </si>
-  <si>
     <t>03-Dec-2021 10:27:24</t>
   </si>
   <si>
     <t>ResultsJNDsNoiseFlatBG20211203T102719.mat</t>
   </si>
   <si>
-    <t xml:space="preserve">Cristina </t>
-  </si>
-  <si>
-    <t>Martínez Vallier</t>
-  </si>
-  <si>
     <t>10-Dec-2021 10:17:36</t>
   </si>
   <si>
     <t>ResultsJNDsNoiseFlatBG20211210T101730.mat</t>
   </si>
   <si>
-    <t xml:space="preserve">laura </t>
-  </si>
-  <si>
-    <t>mislata lahiguera</t>
-  </si>
-  <si>
     <t>10-Dec-2021 11:00:00</t>
   </si>
   <si>
     <t>ResultsJNDsNoiseFlatBG20211210T105955.mat</t>
   </si>
   <si>
-    <t>Cristina</t>
-  </si>
-  <si>
     <t>10-Dec-2021 11:29:37</t>
   </si>
   <si>
     <t>ResultsJNDsNoiseFlatBG20211210T112932.mat</t>
   </si>
   <si>
-    <t>jessica</t>
-  </si>
-  <si>
-    <t>cordero</t>
-  </si>
-  <si>
     <t>10-Dec-2021 12:06:31</t>
   </si>
   <si>
     <t>ResultsJNDsNoiseFlatBG20211210T120626.mat</t>
   </si>
   <si>
-    <t>marina</t>
-  </si>
-  <si>
-    <t>murillo</t>
-  </si>
-  <si>
     <t>10-Dec-2021 14:52:36</t>
   </si>
   <si>
     <t>ResultsJNDsNoiseFlatBG20211210T145230.mat</t>
   </si>
   <si>
-    <t>Esther</t>
-  </si>
-  <si>
-    <t>Sanabria</t>
-  </si>
-  <si>
     <t>10-Dec-2021 16:09:28</t>
   </si>
   <si>
     <t>ResultsJNDsNoiseFlatBG20211210T160923.mat</t>
   </si>
   <si>
-    <t>esther</t>
-  </si>
-  <si>
-    <t>sanabria</t>
-  </si>
-  <si>
     <t>10-Dec-2021 16:39:37</t>
   </si>
   <si>
     <t>ResultsJNDsNoiseFlatBG20211210T163932.mat</t>
   </si>
   <si>
-    <t xml:space="preserve">inmaculada </t>
-  </si>
-  <si>
-    <t>Cardona</t>
-  </si>
-  <si>
     <t>17-Dec-2021 14:19:21</t>
   </si>
   <si>
     <t>ResultsJNDsNoiseFlatBG20211217T141916.mat</t>
   </si>
   <si>
-    <t>Jorge</t>
-  </si>
-  <si>
-    <t>Perles</t>
-  </si>
-  <si>
     <t>17-Dec-2021 17:21:06</t>
   </si>
   <si>
@@ -264,33 +165,18 @@
     <t>ResultsJNDsNoiseFlatBG20211220T112329.mat</t>
   </si>
   <si>
-    <t>Inmaculada</t>
-  </si>
-  <si>
-    <t>cardona</t>
-  </si>
-  <si>
     <t>22-Dec-2021 11:20:43</t>
   </si>
   <si>
     <t>ResultsJNDsNoiseFlatBG20211222T112032.mat</t>
   </si>
   <si>
-    <t>Hervas</t>
-  </si>
-  <si>
     <t>11-Jan-2022 12:17:48</t>
   </si>
   <si>
     <t>ResultsJNDsNoiseFlatBG20220111T121738.mat</t>
   </si>
   <si>
-    <t>Elena</t>
-  </si>
-  <si>
-    <t>Dumitrascu</t>
-  </si>
-  <si>
     <t>11-Jan-2022 14:09:03</t>
   </si>
   <si>
@@ -303,12 +189,6 @@
     <t>ResultsJNDsNoiseFlatBG20220113T142427.mat</t>
   </si>
   <si>
-    <t>Patricio</t>
-  </si>
-  <si>
-    <t>Letelier</t>
-  </si>
-  <si>
     <t>17-Jan-2022 12:57:02</t>
   </si>
   <si>
@@ -321,12 +201,6 @@
     <t>ResultsJNDsNoiseFlatBG20220117T131752.mat</t>
   </si>
   <si>
-    <t xml:space="preserve">Laura </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lopera </t>
-  </si>
-  <si>
     <t>17-Jan-2022 16:14:02</t>
   </si>
   <si>
@@ -339,12 +213,6 @@
     <t>ResultsJNDsNoiseFlatBG20220118T100419.mat</t>
   </si>
   <si>
-    <t>Alejandro</t>
-  </si>
-  <si>
-    <t>Méndez Carmona</t>
-  </si>
-  <si>
     <t>18-Jan-2022 10:41:09</t>
   </si>
   <si>
@@ -357,30 +225,18 @@
     <t>ResultsJNDsNoiseFlatBG20220118T110520.mat</t>
   </si>
   <si>
-    <t xml:space="preserve">javier </t>
-  </si>
-  <si>
-    <t>Sánchiz Mendoza</t>
-  </si>
-  <si>
     <t>20-Jan-2022 18:26:30</t>
   </si>
   <si>
     <t>ResultsJNDsNoiseFlatBG20220120T182621.mat</t>
   </si>
   <si>
-    <t>Javier</t>
-  </si>
-  <si>
     <t>20-Jan-2022 18:52:17</t>
   </si>
   <si>
     <t>ResultsJNDsNoiseFlatBG20220120T185212.mat</t>
   </si>
   <si>
-    <t>García Gilabert</t>
-  </si>
-  <si>
     <t>21-Jan-2022 11:23:13</t>
   </si>
   <si>
@@ -393,12 +249,6 @@
     <t>ResultsJNDsNoiseFlatBG20220121T114403.mat</t>
   </si>
   <si>
-    <t>Daniel</t>
-  </si>
-  <si>
-    <t>Subías Sarrato</t>
-  </si>
-  <si>
     <t>21-Jan-2022 12:33:59</t>
   </si>
   <si>
@@ -411,33 +261,18 @@
     <t>ResultsJNDsNoiseFlatBG20220121T130458.mat</t>
   </si>
   <si>
-    <t>Maria JOse</t>
-  </si>
-  <si>
     <t>24-Jan-2022 09:04:35</t>
   </si>
   <si>
     <t>ResultsJNDsNoiseFlatBG20220124T090423.mat</t>
   </si>
   <si>
-    <t>Marina</t>
-  </si>
-  <si>
-    <t>Murillo</t>
-  </si>
-  <si>
     <t>24-Jan-2022 12:34:51</t>
   </si>
   <si>
     <t>ResultsJNDsNoiseFlatBG20220124T123446.mat</t>
   </si>
   <si>
-    <t>Maria</t>
-  </si>
-  <si>
-    <t>Roselló Matoses</t>
-  </si>
-  <si>
     <t>25-Jan-2022 11:19:22</t>
   </si>
   <si>
@@ -450,36 +285,18 @@
     <t>ResultsJNDsNoiseFlatBG20220125T114644.mat</t>
   </si>
   <si>
-    <t>Laura</t>
-  </si>
-  <si>
-    <t>Mislata</t>
-  </si>
-  <si>
     <t>27-Jan-2022 12:19:24</t>
   </si>
   <si>
     <t>ResultsJNDsNoiseFlatBG20220127T121914.mat</t>
   </si>
   <si>
-    <t>Carlos</t>
-  </si>
-  <si>
-    <t>Esteban Mislata</t>
-  </si>
-  <si>
     <t>27-Jan-2022 12:47:04</t>
   </si>
   <si>
     <t>ResultsJNDsNoiseFlatBG20220127T124659.mat</t>
   </si>
   <si>
-    <t xml:space="preserve">ana belen  </t>
-  </si>
-  <si>
-    <t>conchilla martinez</t>
-  </si>
-  <si>
     <t>27-Jan-2022 13:32:20</t>
   </si>
   <si>
@@ -492,57 +309,27 @@
     <t>28-Jan-2022 12:43:58</t>
   </si>
   <si>
-    <t>ana belen</t>
-  </si>
-  <si>
     <t>31-Jan-2022 13:35:37</t>
   </si>
   <si>
     <t>ResultsJNDsNoiseFlatBG20220131T132610.mat</t>
   </si>
   <si>
-    <t>Coral</t>
-  </si>
-  <si>
-    <t>Montes López</t>
-  </si>
-  <si>
     <t>31-Jan-2022 14:46:16</t>
   </si>
   <si>
     <t>ResultsJNDsNoiseFlatBG20220131T144132.mat</t>
   </si>
   <si>
-    <t xml:space="preserve">Carles </t>
-  </si>
-  <si>
-    <t>Carbonell Sales</t>
-  </si>
-  <si>
     <t>ResultsJNDsNoiseFlatBG20220202T131819.mat</t>
   </si>
   <si>
-    <t>Pablo</t>
-  </si>
-  <si>
-    <t>Gonzalez Segarra</t>
-  </si>
-  <si>
     <t>ResultsJNDsNoiseFlatBG20220202T133856.mat</t>
   </si>
   <si>
-    <t>Adrià</t>
-  </si>
-  <si>
-    <t>Frasquet Mascarell</t>
-  </si>
-  <si>
     <t>ResultsJNDsNoiseFlatBG20220202T135933.mat</t>
   </si>
   <si>
-    <t>Carles</t>
-  </si>
-  <si>
     <t>ResultsJNDsNoiseFlatBG20220202T143731.mat</t>
   </si>
   <si>
@@ -552,53 +339,212 @@
     <t>ResultsJNDsNoiseFlatBG20220202T151326.mat</t>
   </si>
   <si>
-    <t xml:space="preserve">José María </t>
-  </si>
-  <si>
-    <t>Romero Marcos</t>
-  </si>
-  <si>
     <t>ResultsJNDsNoiseFlatBG20220203T123900.mat</t>
   </si>
   <si>
-    <t>Pilar</t>
-  </si>
-  <si>
-    <t>LECHIGUERO</t>
-  </si>
-  <si>
     <t>ResultsJNDsNoiseFlatBG20220204T105347.mat</t>
   </si>
   <si>
-    <t>José María</t>
-  </si>
-  <si>
     <t>ResultsJNDsNoiseFlatBG20220204T113646.mat</t>
   </si>
   <si>
-    <t>Montes</t>
-  </si>
-  <si>
     <t>ResultsJNDsNoiseFlatBG20220204T122529.mat</t>
   </si>
   <si>
-    <t>Lechiguero</t>
-  </si>
-  <si>
     <t>ResultsJNDsNoiseFlatBG20220210T105658.mat</t>
   </si>
   <si>
-    <t>Mikhail</t>
-  </si>
-  <si>
-    <t>Smyshlyaev</t>
+    <t>_34</t>
+  </si>
+  <si>
+    <t>_1</t>
+  </si>
+  <si>
+    <t>_2</t>
+  </si>
+  <si>
+    <t>_3</t>
+  </si>
+  <si>
+    <t>_4</t>
+  </si>
+  <si>
+    <t>_5</t>
+  </si>
+  <si>
+    <t>_6</t>
+  </si>
+  <si>
+    <t>_7</t>
+  </si>
+  <si>
+    <t>_8</t>
+  </si>
+  <si>
+    <t>_9</t>
+  </si>
+  <si>
+    <t>_11</t>
+  </si>
+  <si>
+    <t>_12</t>
+  </si>
+  <si>
+    <t>_13</t>
+  </si>
+  <si>
+    <t>_14</t>
+  </si>
+  <si>
+    <t>_16</t>
+  </si>
+  <si>
+    <t>_17</t>
+  </si>
+  <si>
+    <t>_18</t>
+  </si>
+  <si>
+    <t>_19</t>
+  </si>
+  <si>
+    <t>_20</t>
+  </si>
+  <si>
+    <t>_21</t>
+  </si>
+  <si>
+    <t>_22</t>
+  </si>
+  <si>
+    <t>_23</t>
+  </si>
+  <si>
+    <t>_26</t>
+  </si>
+  <si>
+    <t>_28</t>
+  </si>
+  <si>
+    <t>_29</t>
+  </si>
+  <si>
+    <t>_30</t>
+  </si>
+  <si>
+    <t>_31</t>
+  </si>
+  <si>
+    <t>_32</t>
+  </si>
+  <si>
+    <t>_33</t>
+  </si>
+  <si>
+    <t>_35</t>
+  </si>
+  <si>
+    <t>_36</t>
+  </si>
+  <si>
+    <t>voluntario_upv_1</t>
+  </si>
+  <si>
+    <t>voluntario_upv_2</t>
+  </si>
+  <si>
+    <t>voluntario_upv_3</t>
+  </si>
+  <si>
+    <t>voluntario_upv_4</t>
+  </si>
+  <si>
+    <t>voluntario_upv_5</t>
+  </si>
+  <si>
+    <t>voluntario_upv_6</t>
+  </si>
+  <si>
+    <t>voluntario_upv_7</t>
+  </si>
+  <si>
+    <t>voluntario_upv_8</t>
+  </si>
+  <si>
+    <t>voluntario_upv_9</t>
+  </si>
+  <si>
+    <t>voluntario_upv_11</t>
+  </si>
+  <si>
+    <t>voluntario_upv_12</t>
+  </si>
+  <si>
+    <t>voluntario_upv_13</t>
+  </si>
+  <si>
+    <t>voluntario_upv_14</t>
+  </si>
+  <si>
+    <t>voluntario_upv_16</t>
+  </si>
+  <si>
+    <t>voluntario_upv_17</t>
+  </si>
+  <si>
+    <t>voluntario_upv_18</t>
+  </si>
+  <si>
+    <t>voluntario_upv_19</t>
+  </si>
+  <si>
+    <t>voluntario_upv_20</t>
+  </si>
+  <si>
+    <t>voluntario_upv_21</t>
+  </si>
+  <si>
+    <t>voluntario_upv_22</t>
+  </si>
+  <si>
+    <t>voluntario_upv_23</t>
+  </si>
+  <si>
+    <t>voluntario_upv_26</t>
+  </si>
+  <si>
+    <t>voluntario_upv_28</t>
+  </si>
+  <si>
+    <t>voluntario_upv_29</t>
+  </si>
+  <si>
+    <t>voluntario_upv_30</t>
+  </si>
+  <si>
+    <t>voluntario_upv_31</t>
+  </si>
+  <si>
+    <t>voluntario_upv_32</t>
+  </si>
+  <si>
+    <t>voluntario_upv_33</t>
+  </si>
+  <si>
+    <t>voluntario_upv_34</t>
+  </si>
+  <si>
+    <t>voluntario_upv_35</t>
+  </si>
+  <si>
+    <t>voluntario_upv_36</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -610,6 +556,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -922,7 +874,7 @@
   <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,16 +921,16 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="C2">
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -993,21 +945,21 @@
         <v>44529.475034722222</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="C3">
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -1022,21 +974,21 @@
         <v>44529.500127314815</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="C4">
         <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -1051,21 +1003,21 @@
         <v>44529.567627314813</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="C5">
         <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -1080,21 +1032,21 @@
         <v>44529.585729166669</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>142</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="C6">
         <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -1109,21 +1061,21 @@
         <v>44529.695231481484</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>142</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="C7">
         <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -1138,21 +1090,21 @@
         <v>44529.721990740742</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>143</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="C8">
         <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -1167,21 +1119,21 @@
         <v>44530.456307870372</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>144</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="C9">
         <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -1193,24 +1145,24 @@
         <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I9" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>145</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="C10">
         <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -1222,24 +1174,24 @@
         <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I10" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="C11">
         <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -1251,24 +1203,24 @@
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="I11" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>146</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="C12">
         <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -1280,24 +1232,24 @@
         <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="I12" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="C13">
         <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -1309,53 +1261,53 @@
         <v>3</v>
       </c>
       <c r="H13" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="I13" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>148</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>118</v>
       </c>
       <c r="C14">
         <v>57</v>
       </c>
       <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
         <v>29</v>
-      </c>
-      <c r="E14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>3</v>
-      </c>
-      <c r="H14" t="s">
-        <v>48</v>
-      </c>
-      <c r="I14" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>147</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="C15">
         <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -1367,24 +1319,24 @@
         <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="I15" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="C16">
         <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -1396,24 +1348,24 @@
         <v>3</v>
       </c>
       <c r="H16" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="I16" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>149</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="C17">
         <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -1425,24 +1377,24 @@
         <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="I17" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>150</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="C18">
         <v>51</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -1454,24 +1406,24 @@
         <v>3</v>
       </c>
       <c r="H18" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="I18" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="C19">
         <v>51</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -1483,24 +1435,24 @@
         <v>3</v>
       </c>
       <c r="H19" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="I19" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="C20">
         <v>51</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -1512,24 +1464,24 @@
         <v>3</v>
       </c>
       <c r="H20" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="I20" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>152</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="C21">
         <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -1541,24 +1493,24 @@
         <v>3</v>
       </c>
       <c r="H21" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="I21" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>73</v>
+        <v>152</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="C22">
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -1570,24 +1522,24 @@
         <v>3</v>
       </c>
       <c r="H22" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="I22" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="C23">
         <v>51</v>
       </c>
       <c r="D23" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -1599,24 +1551,24 @@
         <v>3</v>
       </c>
       <c r="H23" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>143</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="C24">
         <v>61</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -1628,24 +1580,24 @@
         <v>3</v>
       </c>
       <c r="H24" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>153</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="C25">
         <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -1657,24 +1609,24 @@
         <v>3</v>
       </c>
       <c r="H25" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="I25" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>86</v>
+        <v>153</v>
       </c>
       <c r="B26" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="C26">
         <v>37</v>
       </c>
       <c r="D26" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -1686,24 +1638,24 @@
         <v>3</v>
       </c>
       <c r="H26" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="I26" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>92</v>
+        <v>154</v>
       </c>
       <c r="B27" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="C27">
         <v>57</v>
       </c>
       <c r="D27" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -1715,24 +1667,24 @@
         <v>3</v>
       </c>
       <c r="H27" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="I27" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>154</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="C28">
         <v>57</v>
       </c>
       <c r="D28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -1744,24 +1696,24 @@
         <v>3</v>
       </c>
       <c r="H28" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="I28" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>98</v>
+        <v>155</v>
       </c>
       <c r="B29" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="C29">
         <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -1773,24 +1725,24 @@
         <v>3</v>
       </c>
       <c r="H29" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="I29" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="B30" t="s">
-        <v>188</v>
+        <v>126</v>
       </c>
       <c r="C30">
         <v>38</v>
       </c>
       <c r="D30" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -1802,21 +1754,21 @@
         <v>3</v>
       </c>
       <c r="I30" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="B31" t="s">
-        <v>188</v>
+        <v>126</v>
       </c>
       <c r="C31">
         <v>38</v>
       </c>
       <c r="D31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -1828,21 +1780,21 @@
         <v>3</v>
       </c>
       <c r="I31" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>104</v>
+        <v>157</v>
       </c>
       <c r="B32" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="C32">
         <v>21</v>
       </c>
       <c r="D32" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
@@ -1854,24 +1806,24 @@
         <v>3</v>
       </c>
       <c r="H32" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="I32" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>104</v>
+        <v>157</v>
       </c>
       <c r="B33" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="C33">
         <v>21</v>
       </c>
       <c r="D33" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -1883,24 +1835,24 @@
         <v>3</v>
       </c>
       <c r="H33" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="I33" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="B34" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="C34">
         <v>41</v>
       </c>
       <c r="D34" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
@@ -1912,24 +1864,24 @@
         <v>3</v>
       </c>
       <c r="H34" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="I34" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="B35" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="C35">
         <v>41</v>
       </c>
       <c r="D35" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E35" t="b">
         <v>0</v>
@@ -1941,24 +1893,24 @@
         <v>3</v>
       </c>
       <c r="H35" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="I35" t="s">
-        <v>116</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>114</v>
+        <v>159</v>
       </c>
       <c r="B36" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="C36">
         <v>21</v>
       </c>
       <c r="D36" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
@@ -1970,24 +1922,24 @@
         <v>3</v>
       </c>
       <c r="H36" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="I36" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>114</v>
+        <v>159</v>
       </c>
       <c r="B37" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="C37">
         <v>21</v>
       </c>
       <c r="D37" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E37" t="b">
         <v>0</v>
@@ -1999,24 +1951,24 @@
         <v>3</v>
       </c>
       <c r="H37" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="I37" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="B38" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C38">
         <v>22</v>
       </c>
       <c r="D38" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E38" t="b">
         <v>1</v>
@@ -2028,24 +1980,24 @@
         <v>3</v>
       </c>
       <c r="H38" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="I38" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="B39" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C39">
         <v>22</v>
       </c>
       <c r="D39" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E39" t="b">
         <v>1</v>
@@ -2057,24 +2009,24 @@
         <v>3</v>
       </c>
       <c r="H39" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="I39" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="C40">
         <v>57</v>
       </c>
       <c r="D40" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E40" t="b">
         <v>0</v>
@@ -2086,24 +2038,24 @@
         <v>3</v>
       </c>
       <c r="H40" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="I40" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="B41" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="C41">
         <v>34</v>
       </c>
       <c r="D41" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E41" t="b">
         <v>0</v>
@@ -2115,24 +2067,24 @@
         <v>3</v>
       </c>
       <c r="H41" t="s">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="I41" t="s">
-        <v>134</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="B42" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C42">
         <v>21</v>
       </c>
       <c r="D42" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E42" t="b">
         <v>0</v>
@@ -2144,24 +2096,24 @@
         <v>3</v>
       </c>
       <c r="H42" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="I42" t="s">
-        <v>138</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="B43" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C43">
         <v>21</v>
       </c>
       <c r="D43" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E43" t="b">
         <v>0</v>
@@ -2173,24 +2125,24 @@
         <v>3</v>
       </c>
       <c r="H43" t="s">
-        <v>139</v>
+        <v>84</v>
       </c>
       <c r="I43" t="s">
-        <v>140</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B44" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="C44">
         <v>57</v>
       </c>
       <c r="D44" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E44" t="b">
         <v>0</v>
@@ -2202,24 +2154,24 @@
         <v>3</v>
       </c>
       <c r="H44" t="s">
-        <v>143</v>
+        <v>86</v>
       </c>
       <c r="I44" t="s">
-        <v>144</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="B45" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="C45">
         <v>27</v>
       </c>
       <c r="D45" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E45" t="b">
         <v>0</v>
@@ -2231,24 +2183,24 @@
         <v>3</v>
       </c>
       <c r="H45" t="s">
-        <v>147</v>
+        <v>88</v>
       </c>
       <c r="I45" t="s">
-        <v>148</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="B46" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="C46">
         <v>41</v>
       </c>
       <c r="D46" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E46" t="b">
         <v>0</v>
@@ -2260,24 +2212,24 @@
         <v>3</v>
       </c>
       <c r="H46" t="s">
-        <v>151</v>
+        <v>90</v>
       </c>
       <c r="I46" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="B47" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="C47">
         <v>27</v>
       </c>
       <c r="D47" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E47" t="b">
         <v>0</v>
@@ -2289,24 +2241,24 @@
         <v>3</v>
       </c>
       <c r="H47" t="s">
-        <v>154</v>
+        <v>93</v>
       </c>
       <c r="I47" t="s">
-        <v>153</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B48" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="C48">
         <v>41</v>
       </c>
       <c r="D48" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E48" t="b">
         <v>0</v>
@@ -2318,24 +2270,24 @@
         <v>3</v>
       </c>
       <c r="H48" t="s">
-        <v>156</v>
+        <v>94</v>
       </c>
       <c r="I48" t="s">
-        <v>157</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B49" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="C49">
         <v>18</v>
       </c>
       <c r="D49" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E49" t="b">
         <v>0</v>
@@ -2347,24 +2299,24 @@
         <v>3</v>
       </c>
       <c r="H49" t="s">
-        <v>160</v>
+        <v>96</v>
       </c>
       <c r="I49" t="s">
-        <v>161</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B50" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="C50">
         <v>19</v>
       </c>
       <c r="D50" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E50" t="b">
         <v>0</v>
@@ -2379,21 +2331,21 @@
         <v>44594.554502314815</v>
       </c>
       <c r="I50" t="s">
-        <v>164</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B51" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="C51">
         <v>19</v>
       </c>
       <c r="D51" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E51" t="b">
         <v>0</v>
@@ -2408,21 +2360,21 @@
         <v>44594.568761574075</v>
       </c>
       <c r="I51" t="s">
-        <v>167</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B52" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="C52">
         <v>19</v>
       </c>
       <c r="D52" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E52" t="b">
         <v>0</v>
@@ -2437,21 +2389,21 @@
         <v>44594.583078703705</v>
       </c>
       <c r="I52" t="s">
-        <v>170</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B53" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="C53">
         <v>19</v>
       </c>
       <c r="D53" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E53" t="b">
         <v>0</v>
@@ -2466,21 +2418,21 @@
         <v>44594.609456018516</v>
       </c>
       <c r="I53" t="s">
-        <v>172</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B54" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="C54">
         <v>19</v>
       </c>
       <c r="D54" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E54" t="b">
         <v>0</v>
@@ -2495,21 +2447,21 @@
         <v>44594.621481481481</v>
       </c>
       <c r="I54" t="s">
-        <v>173</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B55" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="C55">
         <v>19</v>
       </c>
       <c r="D55" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E55" t="b">
         <v>0</v>
@@ -2524,21 +2476,21 @@
         <v>44594.634398148148</v>
       </c>
       <c r="I55" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B56" t="s">
-        <v>176</v>
+        <v>109</v>
       </c>
       <c r="C56">
         <v>20</v>
       </c>
       <c r="D56" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E56" t="b">
         <v>0</v>
@@ -2553,21 +2505,21 @@
         <v>44595.527627314812</v>
       </c>
       <c r="I56" t="s">
-        <v>177</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B57" t="s">
-        <v>179</v>
+        <v>138</v>
       </c>
       <c r="C57">
         <v>54</v>
       </c>
       <c r="D57" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E57" t="b">
         <v>0</v>
@@ -2582,21 +2534,21 @@
         <v>44596.465173611112</v>
       </c>
       <c r="I57" t="s">
-        <v>180</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B58" t="s">
-        <v>181</v>
+        <v>109</v>
       </c>
       <c r="C58">
         <v>20</v>
       </c>
       <c r="D58" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E58" t="b">
         <v>0</v>
@@ -2611,21 +2563,21 @@
         <v>44596.483923611115</v>
       </c>
       <c r="I58" t="s">
-        <v>182</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="B59" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
       <c r="C59">
         <v>18</v>
       </c>
       <c r="D59" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E59" t="b">
         <v>0</v>
@@ -2640,21 +2592,21 @@
         <v>44596.517766203702</v>
       </c>
       <c r="I59" t="s">
-        <v>184</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="B60" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
       <c r="C60">
         <v>18</v>
       </c>
       <c r="D60" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E60" t="b">
         <v>0</v>
@@ -2669,21 +2621,21 @@
         <v>44596.520868055559</v>
       </c>
       <c r="I60" t="s">
-        <v>184</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B61" t="s">
-        <v>185</v>
+        <v>138</v>
       </c>
       <c r="C61">
         <v>54</v>
       </c>
       <c r="D61" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E61" t="b">
         <v>0</v>
@@ -2698,10 +2650,11 @@
         <v>44602.456342592595</v>
       </c>
       <c r="I61" t="s">
-        <v>186</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
